--- a/Data/top_terms_lda_20_2.xlsx
+++ b/Data/top_terms_lda_20_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelateng/Desktop/Github_Files_Teng/TaD_Final_Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21C39D59-2823-B743-8043-322E5214547A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{43A6D1FD-DD83-3747-B980-EFED64CEBFE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="4440" yWindow="800" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="top_terms_lda_20_2" sheetId="1" r:id="rId1"/>
@@ -834,7 +834,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1012,6 +1012,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1175,8 +1181,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1534,17 +1541,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Z21"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="10.83203125" style="1"/>
+    <col min="16" max="16" width="10.83203125" style="1"/>
+    <col min="25" max="26" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -1577,13 +1590,13 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="Q1" t="s">
@@ -1610,10 +1623,10 @@
       <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1624,7 +1637,7 @@
       <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D2" t="s">
@@ -1657,13 +1670,13 @@
       <c r="M2" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="Q2" t="s">
@@ -1690,10 +1703,10 @@
       <c r="X2" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1704,7 +1717,7 @@
       <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D3" t="s">
@@ -1737,13 +1750,13 @@
       <c r="M3" t="s">
         <v>47</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
         <v>48</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q3" t="s">
@@ -1770,10 +1783,10 @@
       <c r="X3" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Z3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1784,7 +1797,7 @@
       <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D4" t="s">
@@ -1817,13 +1830,13 @@
       <c r="M4" t="s">
         <v>59</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="1" t="s">
         <v>60</v>
       </c>
       <c r="O4" t="s">
         <v>61</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="1" t="s">
         <v>62</v>
       </c>
       <c r="Q4" t="s">
@@ -1850,10 +1863,10 @@
       <c r="X4" t="s">
         <v>68</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Z4" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1864,7 +1877,7 @@
       <c r="B5" t="s">
         <v>63</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D5" t="s">
@@ -1897,13 +1910,13 @@
       <c r="M5" t="s">
         <v>53</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="O5" t="s">
         <v>76</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q5" t="s">
@@ -1930,10 +1943,10 @@
       <c r="X5" t="s">
         <v>26</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Y5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Z5" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1944,7 +1957,7 @@
       <c r="B6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D6" t="s">
@@ -1977,13 +1990,13 @@
       <c r="M6" t="s">
         <v>76</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="1" t="s">
         <v>76</v>
       </c>
       <c r="O6" t="s">
         <v>42</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="1" t="s">
         <v>88</v>
       </c>
       <c r="Q6" t="s">
@@ -2010,10 +2023,10 @@
       <c r="X6" t="s">
         <v>72</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Y6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="Z6" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2024,7 +2037,7 @@
       <c r="B7" t="s">
         <v>69</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D7" t="s">
@@ -2057,13 +2070,13 @@
       <c r="M7" t="s">
         <v>38</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="1" t="s">
         <v>91</v>
       </c>
       <c r="O7" t="s">
         <v>97</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="1" t="s">
         <v>98</v>
       </c>
       <c r="Q7" t="s">
@@ -2090,10 +2103,10 @@
       <c r="X7" t="s">
         <v>31</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Y7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="Z7" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2104,7 +2117,7 @@
       <c r="B8" t="s">
         <v>103</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D8" t="s">
@@ -2137,13 +2150,13 @@
       <c r="M8" t="s">
         <v>48</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="1" t="s">
         <v>64</v>
       </c>
       <c r="O8" t="s">
         <v>26</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="1" t="s">
         <v>60</v>
       </c>
       <c r="Q8" t="s">
@@ -2170,10 +2183,10 @@
       <c r="X8" t="s">
         <v>76</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Y8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="Z8" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2184,7 +2197,7 @@
       <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D9" t="s">
@@ -2217,13 +2230,13 @@
       <c r="M9" t="s">
         <v>111</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="1" t="s">
         <v>112</v>
       </c>
       <c r="O9" t="s">
         <v>60</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="1" t="s">
         <v>113</v>
       </c>
       <c r="Q9" t="s">
@@ -2250,10 +2263,10 @@
       <c r="X9" t="s">
         <v>117</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Y9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Z9" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2264,7 +2277,7 @@
       <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D10" t="s">
@@ -2297,13 +2310,13 @@
       <c r="M10" t="s">
         <v>68</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="1" t="s">
         <v>124</v>
       </c>
       <c r="O10" t="s">
         <v>106</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Q10" t="s">
@@ -2330,10 +2343,10 @@
       <c r="X10" t="s">
         <v>128</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Y10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Z10" s="1" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2344,7 +2357,7 @@
       <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D11" t="s">
@@ -2377,13 +2390,13 @@
       <c r="M11" t="s">
         <v>129</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="1" t="s">
         <v>130</v>
       </c>
       <c r="O11" t="s">
         <v>131</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Q11" t="s">
@@ -2410,10 +2423,10 @@
       <c r="X11" t="s">
         <v>133</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Y11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Z11" s="1" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2424,7 +2437,7 @@
       <c r="B12" t="s">
         <v>86</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D12" t="s">
@@ -2457,13 +2470,13 @@
       <c r="M12" t="s">
         <v>139</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="O12" t="s">
         <v>64</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="1" t="s">
         <v>140</v>
       </c>
       <c r="Q12" t="s">
@@ -2490,10 +2503,10 @@
       <c r="X12" t="s">
         <v>144</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Y12" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Z12" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2504,7 +2517,7 @@
       <c r="B13" t="s">
         <v>72</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D13" t="s">
@@ -2537,13 +2550,13 @@
       <c r="M13" t="s">
         <v>153</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="1" t="s">
         <v>125</v>
       </c>
       <c r="O13" t="s">
         <v>153</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="1" t="s">
         <v>154</v>
       </c>
       <c r="Q13" t="s">
@@ -2570,10 +2583,10 @@
       <c r="X13" t="s">
         <v>33</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Y13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Z13" s="1" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2584,7 +2597,7 @@
       <c r="B14" t="s">
         <v>137</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D14" t="s">
@@ -2617,13 +2630,13 @@
       <c r="M14" t="s">
         <v>161</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="1" t="s">
         <v>162</v>
       </c>
       <c r="O14" t="s">
         <v>104</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="Q14" t="s">
@@ -2650,10 +2663,10 @@
       <c r="X14" t="s">
         <v>166</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Y14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Z14" s="1" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2664,7 +2677,7 @@
       <c r="B15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D15" t="s">
@@ -2697,13 +2710,13 @@
       <c r="M15" t="s">
         <v>176</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="O15" t="s">
         <v>95</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="1" t="s">
         <v>106</v>
       </c>
       <c r="Q15" t="s">
@@ -2730,10 +2743,10 @@
       <c r="X15" t="s">
         <v>46</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Y15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Z15" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2744,7 +2757,7 @@
       <c r="B16" t="s">
         <v>81</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D16" t="s">
@@ -2777,13 +2790,13 @@
       <c r="M16" t="s">
         <v>28</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="1" t="s">
         <v>69</v>
       </c>
       <c r="O16" t="s">
         <v>31</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="1" t="s">
         <v>38</v>
       </c>
       <c r="Q16" t="s">
@@ -2810,10 +2823,10 @@
       <c r="X16" t="s">
         <v>108</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Y16" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Z16" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2824,7 +2837,7 @@
       <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>169</v>
       </c>
       <c r="D17" t="s">
@@ -2857,13 +2870,13 @@
       <c r="M17" t="s">
         <v>169</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="1" t="s">
         <v>191</v>
       </c>
       <c r="O17" t="s">
         <v>192</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="Q17" t="s">
@@ -2890,10 +2903,10 @@
       <c r="X17" t="s">
         <v>197</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Y17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="Z17" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2904,7 +2917,7 @@
       <c r="B18" t="s">
         <v>115</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D18" t="s">
@@ -2937,13 +2950,13 @@
       <c r="M18" t="s">
         <v>67</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="1" t="s">
         <v>137</v>
       </c>
       <c r="O18" t="s">
         <v>200</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="1" t="s">
         <v>46</v>
       </c>
       <c r="Q18" t="s">
@@ -2970,10 +2983,10 @@
       <c r="X18" t="s">
         <v>32</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Y18" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="Z18" s="1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2984,7 +2997,7 @@
       <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D19" t="s">
@@ -3017,13 +3030,13 @@
       <c r="M19" t="s">
         <v>206</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="1" t="s">
         <v>135</v>
       </c>
       <c r="O19" t="s">
         <v>91</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="1" t="s">
         <v>108</v>
       </c>
       <c r="Q19" t="s">
@@ -3050,10 +3063,10 @@
       <c r="X19" t="s">
         <v>209</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Y19" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Z19" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3064,7 +3077,7 @@
       <c r="B20" t="s">
         <v>202</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>210</v>
       </c>
       <c r="D20" t="s">
@@ -3097,13 +3110,13 @@
       <c r="M20" t="s">
         <v>73</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" s="1" t="s">
         <v>72</v>
       </c>
       <c r="O20" t="s">
         <v>212</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="1" t="s">
         <v>130</v>
       </c>
       <c r="Q20" t="s">
@@ -3130,10 +3143,10 @@
       <c r="X20" t="s">
         <v>164</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Y20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Z20" s="1" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3144,7 +3157,7 @@
       <c r="B21" t="s">
         <v>217</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D21" t="s">
@@ -3177,13 +3190,13 @@
       <c r="M21" t="s">
         <v>117</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="1" t="s">
         <v>219</v>
       </c>
       <c r="O21" t="s">
         <v>108</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="1" t="s">
         <v>120</v>
       </c>
       <c r="Q21" t="s">
@@ -3210,10 +3223,10 @@
       <c r="X21" t="s">
         <v>222</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Y21" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Z21" s="1" t="s">
         <v>223</v>
       </c>
     </row>
